--- a/biology/Zoologie/Hibou_malgache/Hibou_malgache.xlsx
+++ b/biology/Zoologie/Hibou_malgache/Hibou_malgache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asio madagascariensis
 Le Hibou malgache (Asio madagascariensis (A. Smith, 1834)) est une espèce de rapaces nocturnes de la famille des Strigidae. Idéalement appelé "Vorondolo","Matory Andro" ou encore "Vatsy" pour certaines région de Madagascar. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Madagascar - sur approx. 20 000 km2
 </t>
@@ -543,9 +557,11 @@
           <t>Proies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ils se nourrissent de [1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ils se nourrissent de :
 Amphibiens (Boophis)- 2 %
 Reptiles (Uroplatus) - 3,3 %
 Oiseaux (Eurystomus glaucurus - 8 % , Hypsipetes madagascariensis - 2,7 %), total : 10,7 %
